--- a/Scrape/Sasi/SasiBlush.xlsx
+++ b/Scrape/Sasi/SasiBlush.xlsx
@@ -110,7 +110,7 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1716257300-1</t>
+          <t>1717925954-1</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -129,25 +129,81 @@
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>SASI Girls Can Shine Blush On 6g #S04 Sparkle Pink
+            4.9 / 5.0
+                                                        ฿149</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/sasi/sasi-girls-can-shine-blush-on-6g-s04-sparkle-pink-71159.html</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2022/0405/16491556513373.jpg.webp</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>&lt;li title="#S01" onmouseover="relatedOption(71156)" onmouseout="relatedOption(71159)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-shine-blush-on-6g-s01-unusual-pink-71156.html')" title="#S01" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782641011929.jpg" alt="#S01"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li class="active" selected="" title="#S04" onmouseover="relatedOption(71159)" onmouseout="relatedOption(71159)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-shine-blush-on-6g-s04-sparkle-pink-71159.html')" title="#S04" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782641041278.jpg" alt="#S04"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>SASI Girls Can Shine Blush On 6g #S04 Sparkle Pink ให้พวงแก้มสวย เล่นแสงดูมีมิติ เปล่งประกายโดดเด่นได้ไม่เหมือนใคร ด้วยบลัชออนผสมชิมเมอร์เนื้อละเอียด จากศศิ สีใช้ง่าย เบลนได้ดี ไม่กระจุกตัว ติดทนทั้งวัน</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1717925956-2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/list/makeup-blush/?filter_params=-1:2998</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>"SASI、บลัช"</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>SASI Girls Can Be Bold Blush On 6g #M04 Outdoor Girl
             5.0 / 5.0
-                                                        ฿89
-                                                    - 40%
-        ฿149</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
+                                                        ฿149</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>https://www.konvy.com/sasi/sasi-girls-can-be-bold-blush-on-6g-m04-outdoor-girl-71154.html</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/team/2022/0405/16491551638036.jpg</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2022/0405/16491551631988.jpg.webp</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>&lt;li title="#M01" onmouseover="relatedOption(71151)" onmouseout="relatedOption(71154)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-bold-blush-on-6g-m01-talented-pink-71151.html')" title="#M01" class="ky-d ky-pointer"&gt;
@@ -166,53 +222,51 @@
                                     &lt;/li&gt;</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>SASI Girls Can Be Bold Blush On 6g #M04 Outdoor Girl เพิ่มสีให้พวงแก้มสวย ละมุน ดูเป็นธรรมชาติ มั่นใจได้ทุกวัน ด้วยบลัชออนเนื้อแมทละเอียด จากศศิ สีใช้ง่าย เบลนได้ดี ไม่กระจุกตัว ติดทนทั้งวัน</t>
         </is>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1716257302-2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/list/makeup-blush/?filter_params=-1:2998</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>"SASI、บลัช"</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1717925958-3</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/list/makeup-blush/?filter_params=-1:2998</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>"SASI、บลัช"</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
         <is>
           <t>SASI Girls Can Shine Blush On 6g #S01 Unusual Pink
             5.0 / 5.0
-                                                        ฿89
-                                                    - 40%
-        ฿149</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
+                                                        ฿149</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>https://www.konvy.com/sasi/sasi-girls-can-shine-blush-on-6g-s01-unusual-pink-71156.html</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2022/0405/16491555768832.jpg.webp</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>&lt;li class="active" selected="" title="#S01" onmouseover="relatedOption(71156)" onmouseout="relatedOption(71156)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-shine-blush-on-6g-s01-unusual-pink-71156.html')" title="#S01" class="ky-d ky-pointer"&gt;
@@ -226,76 +280,16 @@
                                     &lt;/li&gt;</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>SASI Girls Can Shine Blush On 6g #S01 Unusual Pink ให้พวงแก้มสวย เล่นแสงดูมีมิติ เปล่งประกายโดดเด่นได้ไม่เหมือนใคร ด้วยบลัชออนผสมชิมเมอร์เนื้อละเอียด จากศศิ สีใช้ง่าย เบลนได้ดี ไม่กระจุกตัว ติดทนทั้งวัน</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1716257305-3</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/list/makeup-blush/?filter_params=-1:2998</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>"SASI、บลัช"</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>SASI Girls Can Shine Blush On 6g #S04 Sparkle Pink
-            4.9 / 5.0
-                                                        ฿89
-                                                    - 40%
-        ฿149</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/sasi/sasi-girls-can-shine-blush-on-6g-s04-sparkle-pink-71159.html</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/team/2022/0405/16491556513373.jpg</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>&lt;li title="#S01" onmouseover="relatedOption(71156)" onmouseout="relatedOption(71159)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-shine-blush-on-6g-s01-unusual-pink-71156.html')" title="#S01" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782641011929.jpg" alt="#S01"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li class="active" selected="" title="#S04" onmouseover="relatedOption(71159)" onmouseout="relatedOption(71159)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-shine-blush-on-6g-s04-sparkle-pink-71159.html')" title="#S04" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0308/16782641041278.jpg" alt="#S04"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>SASI Girls Can Shine Blush On 6g #S04 Sparkle Pink ให้พวงแก้มสวย เล่นแสงดูมีมิติ เปล่งประกายโดดเด่นได้ไม่เหมือนใคร ด้วยบลัชออนผสมชิมเมอร์เนื้อละเอียด จากศศิ สีใช้ง่าย เบลนได้ดี ไม่กระจุกตัว ติดทนทั้งวัน</t>
         </is>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1716257307-4</t>
+          <t>1717925961-4</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -317,9 +311,7 @@
         <is>
           <t>SASI Girls Can Be Bold Blush On 6g #M01 Talented Pink
             5.0 / 5.0
-                                                        ฿89
-                                                    - 40%
-        ฿149</t>
+                                                        ฿149</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -329,7 +321,7 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2022/0405/16491542247347.jpg</t>
+          <t>https://s2.konvy.com/static/team/2022/0405/16491542247347.jpg.webp</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
@@ -360,7 +352,7 @@
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>1716257309-5</t>
+          <t>1717925963-5</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -379,25 +371,86 @@
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>SASI Kiss &amp; Blush Stick 4g #02 First Date
+            4.9 / 5.0
+                                                        ฿139</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/sasi/sasi-kiss-%26-blush-stick-4g-02-first-date-91188.html</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2023/1026/16982904516001.jpg.webp</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>&lt;li title="#01" onmouseover="relatedOption(91187)" onmouseout="relatedOption(91188)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-kiss-%26-blush-stick-4g-01-first-crush-91187.html')" title="#01" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/1010/16969281937184.jpg" alt="#01"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li class="active" selected="" title="#02" onmouseover="relatedOption(91188)" onmouseout="relatedOption(91188)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-kiss-%26-blush-stick-4g-02-first-date-91188.html')" title="#02" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/1010/16969281702996.jpg" alt="#02"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#03" onmouseover="relatedOption(91189)" onmouseout="relatedOption(91188)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-kiss-%26-blush-stick-4g-03-first-kiss-91189.html')" title="#03" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/1010/16969281686177.jpg" alt="#03"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>SASI Kiss &amp; Blush Stick 4g #02 First Date บลัชออนแท่งแบบครีม จากศศิ พกพาง่าย เนื้อบางเบา ไม่มัน ไม่เหนียวเหนอะหนะ ให้ความรู้สึกแบบ Powdery แต่ให้ความติดทนกว่าแบบฝุ่น เนื้อครีมสูตรพิเศษเนื้อเนียนละเอียดบางเบา เกลี่ยง่าย ไม่เป็นคราบ ไล่สีได้อย่างมีมิติ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>1717925966-6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/list/makeup-blush/?filter_params=-1:2998</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>"SASI、บลัช"</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>SASI Girls Can Be Bold Blush On 6g #M02 Pinky Spice
             4.9 / 5.0
-                                                        ฿89
-                                                    - 40%
-        ฿149</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
+                                                        ฿149</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>https://www.konvy.com/sasi/sasi-girls-can-be-bold-blush-on-6g-m02-pinky-spice-71152.html</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2022/0405/16491542519503.jpg.webp</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>&lt;li title="#M01" onmouseover="relatedOption(71151)" onmouseout="relatedOption(71152)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-girls-can-be-bold-blush-on-6g-m01-talented-pink-71151.html')" title="#M01" class="ky-d ky-pointer"&gt;
@@ -416,81 +469,16 @@
                                     &lt;/li&gt;</t>
         </is>
       </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="I7" s="1" t="inlineStr">
         <is>
           <t>SASI Girls Can Be Bold Blush On 6g #M02 Pinky Spice เพิ่มสีให้พวงแก้มสวย ละมุน ดูเป็นธรรมชาติ มั่นใจได้ทุกวัน ด้วยบลัชออนเนื้อแมทละเอียด จากศศิ สีใช้ง่าย เบลนได้ดี ไม่กระจุกตัว ติดทนทั้งวัน</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1716257312-6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/list/makeup-blush/?filter_params=-1:2998</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>"SASI、บลัช"</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/category/2020/0416/15870259543485_240x240.jpg</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>SASI Kiss &amp; Blush Stick 4g #02 First Date
-            5.0 / 5.0
-                                                        ฿79
-                                                    - 43%
-        ฿139</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/sasi/sasi-kiss-%26-blush-stick-4g-02-first-date-91188.html</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/team/2023/1026/16982904516001.jpg</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>&lt;li title="#01" onmouseover="relatedOption(91187)" onmouseout="relatedOption(91188)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-kiss-%26-blush-stick-4g-01-first-crush-91187.html')" title="#01" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/1010/16969281937184.jpg" alt="#01"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li class="active" selected="" title="#02" onmouseover="relatedOption(91188)" onmouseout="relatedOption(91188)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-kiss-%26-blush-stick-4g-02-first-date-91188.html')" title="#02" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/1010/16969281702996.jpg" alt="#02"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#03" onmouseover="relatedOption(91189)" onmouseout="relatedOption(91188)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/sasi/sasi-kiss-%26-blush-stick-4g-03-first-kiss-91189.html')" title="#03" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/1010/16969281686177.jpg" alt="#03"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>SASI Kiss &amp; Blush Stick 4g #02 First Date บลัชออนแท่งแบบครีม จากศศิ พกพาง่าย เนื้อบางเบา ไม่มัน ไม่เหนียวเหนอะหนะ ให้ความรู้สึกแบบ Powdery แต่ให้ความติดทนกว่าแบบฝุ่น เนื้อครีมสูตรพิเศษเนื้อเนียนละเอียดบางเบา เกลี่ยง่าย ไม่เป็นคราบ ไล่สีได้อย่างมีมิติ</t>
         </is>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>1716257314-7</t>
+          <t>1717925968-7</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -511,10 +499,8 @@
       <c r="E8" s="1" t="inlineStr">
         <is>
           <t>SASI Kiss &amp; Blush Stick 4g #01 First Crush
-            4.9 / 5.0
-                                                        ฿79
-                                                    - 43%
-        ฿139</t>
+            4.8 / 5.0
+                                                        ฿139</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
@@ -524,7 +510,7 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/1026/16982904268942.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/1026/16982904268942.jpg.webp</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
@@ -555,7 +541,7 @@
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>1716257316-8</t>
+          <t>1717925970-8</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -577,9 +563,7 @@
         <is>
           <t>SASI Kiss &amp; Blush Stick 4g #03 First Kiss
             4.8 / 5.0
-                                                        ฿79
-                                                    - 43%
-        ฿139</t>
+                                                        ฿139</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
@@ -589,7 +573,7 @@
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/1026/16982904705956.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/1026/16982904705956.jpg.webp</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
